--- a/Outputs/1. Budget/Output Files/1000000/Output_6_29.xlsx
+++ b/Outputs/1. Budget/Output Files/1000000/Output_6_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2261434.673672188</v>
+        <v>2254226.73651358</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702198</v>
+        <v>2346514.735702199</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9904140.621401276</v>
+        <v>9904140.621401275</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G2" t="n">
-        <v>276.1565137023554</v>
+        <v>133.3573322408907</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.75911149906585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>9.223763435107132</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>71.03041831522432</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>71.30468686766744</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>372.0396308464222</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>372.0396308464222</v>
       </c>
       <c r="F5" t="n">
-        <v>372.0396308464229</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464229</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280908</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.1819171385216</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>172.8415595021197</v>
+        <v>185.8044102915852</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>372.0396308464222</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>41.63215724535524</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0906518175546</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281877</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.4580015512967</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141301</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>129.520548547786</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.0013780148184</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>122.2436765653592</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>382.8908255841843</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>181.8921573515706</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>9.76486346740683</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>81.80445351869579</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>55.07870847208336</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>141.5664440673981</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>12.68762643336706</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>136.4057165655207</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>14.97068936074831</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>113.0919595867376</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>111.4820219577564</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>70.28434394414768</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>49.86466350508186</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,16 +2772,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>237.6821551249385</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>195.8155841663235</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>122.3137095599312</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>164.3650309254209</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3082,7 +3082,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>139.7937753284326</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>15.98360398438619</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>120.8530343211899</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>170.2871609272517</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,7 +3483,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3562,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>142.7169013050003</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>176.5049657539128</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634799</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>96.38718145721396</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>114.4760112588801</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4036,7 +4036,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>181.8344492986315</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>174.7149577914432</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>858.9304414063565</v>
+        <v>642.8621858041602</v>
       </c>
       <c r="C2" t="n">
-        <v>858.9304414063565</v>
+        <v>642.8621858041602</v>
       </c>
       <c r="D2" t="n">
-        <v>858.9304414063565</v>
+        <v>642.8621858041602</v>
       </c>
       <c r="E2" t="n">
-        <v>579.9844679696338</v>
+        <v>642.8621858041602</v>
       </c>
       <c r="F2" t="n">
-        <v>301.0384945329111</v>
+        <v>363.9162123674374</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438682</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173955</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
         <v>989.7620250901064</v>
@@ -4357,25 +4357,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="T2" t="n">
-        <v>879.8992409003624</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="U2" t="n">
-        <v>879.8992409003624</v>
+        <v>642.8621858041602</v>
       </c>
       <c r="V2" t="n">
-        <v>879.8992409003624</v>
+        <v>642.8621858041602</v>
       </c>
       <c r="W2" t="n">
-        <v>879.8992409003624</v>
+        <v>642.8621858041602</v>
       </c>
       <c r="X2" t="n">
-        <v>879.8992409003624</v>
+        <v>642.8621858041602</v>
       </c>
       <c r="Y2" t="n">
-        <v>858.9304414063565</v>
+        <v>642.8621858041602</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>361.0614026516138</v>
+        <v>31.40945385892292</v>
       </c>
       <c r="C3" t="n">
-        <v>361.0614026516138</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D3" t="n">
-        <v>361.0614026516138</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E3" t="n">
-        <v>361.0614026516138</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F3" t="n">
-        <v>361.0614026516138</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
-        <v>222.40666688016</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L3" t="n">
-        <v>22.09252109618843</v>
+        <v>268.2479876888895</v>
       </c>
       <c r="M3" t="n">
-        <v>295.4874696615203</v>
+        <v>541.6429362542214</v>
       </c>
       <c r="N3" t="n">
-        <v>568.8824182268521</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O3" t="n">
-        <v>835.3792318101359</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P3" t="n">
-        <v>1032.263351807424</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940351</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>836.17674519153</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>836.17674519153</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>764.4288479034246</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V3" t="n">
-        <v>529.2767396716819</v>
+        <v>869.4739465776793</v>
       </c>
       <c r="W3" t="n">
-        <v>529.2767396716819</v>
+        <v>615.2365898494777</v>
       </c>
       <c r="X3" t="n">
-        <v>529.2767396716819</v>
+        <v>407.3850896439449</v>
       </c>
       <c r="Y3" t="n">
-        <v>529.2767396716819</v>
+        <v>199.624790878991</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C4" t="n">
-        <v>126.9677807731686</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D4" t="n">
-        <v>126.9677807731686</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
-        <v>126.9677807731686</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>126.9677807731686</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>126.9677807731686</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>126.9677807731686</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>126.9677807731686</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1313.571089545167</v>
+        <v>427.4862111402835</v>
       </c>
       <c r="C5" t="n">
-        <v>1313.571089545167</v>
+        <v>427.4862111402835</v>
       </c>
       <c r="D5" t="n">
-        <v>1313.571089545167</v>
+        <v>427.4862111402835</v>
       </c>
       <c r="E5" t="n">
-        <v>1313.571089545167</v>
+        <v>51.6886042247055</v>
       </c>
       <c r="F5" t="n">
-        <v>937.7734826295881</v>
+        <v>44.74310347550203</v>
       </c>
       <c r="G5" t="n">
-        <v>561.9758757140094</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="H5" t="n">
-        <v>223.9609786779066</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380434</v>
+        <v>57.64391735380406</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456886</v>
+        <v>220.174733845688</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039988</v>
+        <v>474.0852112039978</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494176</v>
+        <v>773.2160860494163</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635724</v>
+        <v>1062.555213635722</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293131</v>
+        <v>1290.582309293129</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935883</v>
+        <v>1447.523776935881</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385692</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385692</v>
+        <v>1366.762647488192</v>
       </c>
       <c r="S5" t="n">
-        <v>1488.158523385692</v>
+        <v>1366.762647488192</v>
       </c>
       <c r="T5" t="n">
-        <v>1488.158523385692</v>
+        <v>1366.762647488192</v>
       </c>
       <c r="U5" t="n">
-        <v>1488.158523385692</v>
+        <v>1366.762647488192</v>
       </c>
       <c r="V5" t="n">
-        <v>1488.158523385692</v>
+        <v>1366.762647488192</v>
       </c>
       <c r="W5" t="n">
-        <v>1488.158523385692</v>
+        <v>1366.762647488192</v>
       </c>
       <c r="X5" t="n">
-        <v>1313.571089545167</v>
+        <v>1179.081424971439</v>
       </c>
       <c r="Y5" t="n">
-        <v>1313.571089545167</v>
+        <v>803.2838180558615</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>694.3369603360424</v>
+        <v>246.2688838350582</v>
       </c>
       <c r="C6" t="n">
-        <v>519.8839310549154</v>
+        <v>71.81585455393119</v>
       </c>
       <c r="D6" t="n">
-        <v>519.8839310549154</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="E6" t="n">
-        <v>360.6464760494599</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="F6" t="n">
-        <v>360.6464760494599</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1710701731421</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="J6" t="n">
-        <v>29.76317046771383</v>
+        <v>52.67537262782852</v>
       </c>
       <c r="K6" t="n">
-        <v>29.76317046771383</v>
+        <v>218.4568186361414</v>
       </c>
       <c r="L6" t="n">
-        <v>314.0811796138504</v>
+        <v>502.7748277822776</v>
       </c>
       <c r="M6" t="n">
-        <v>682.4004141518092</v>
+        <v>581.0776013314415</v>
       </c>
       <c r="N6" t="n">
-        <v>1050.719648689768</v>
+        <v>949.3968358693995</v>
       </c>
       <c r="O6" t="n">
-        <v>1257.711717241722</v>
+        <v>1257.711717241719</v>
       </c>
       <c r="P6" t="n">
-        <v>1488.158523385692</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385692</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707614</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.174372107483</v>
+        <v>1319.485484785557</v>
       </c>
       <c r="T6" t="n">
-        <v>1033.017297458531</v>
+        <v>1319.485484785557</v>
       </c>
       <c r="U6" t="n">
-        <v>902.1884605415752</v>
+        <v>1319.485484785557</v>
       </c>
       <c r="V6" t="n">
-        <v>902.1884605415752</v>
+        <v>1084.333376553815</v>
       </c>
       <c r="W6" t="n">
-        <v>902.1884605415752</v>
+        <v>830.096019825613</v>
       </c>
       <c r="X6" t="n">
-        <v>694.3369603360424</v>
+        <v>622.2445196200802</v>
       </c>
       <c r="Y6" t="n">
-        <v>694.3369603360424</v>
+        <v>414.4842208551262</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771383</v>
+        <v>191.725145014737</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771383</v>
+        <v>191.725145014737</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771383</v>
+        <v>191.725145014737</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771383</v>
+        <v>191.725145014737</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771383</v>
+        <v>191.725145014737</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771383</v>
+        <v>191.725145014737</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888178</v>
+        <v>32.09990175888159</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611308</v>
+        <v>90.61654790611271</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236694</v>
+        <v>162.7032697236688</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400029</v>
+        <v>238.5105468400021</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057955</v>
+        <v>292.5145415057946</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918686</v>
+        <v>315.2036061918676</v>
       </c>
       <c r="Q7" t="n">
-        <v>250.5557496112439</v>
+        <v>315.2036061918676</v>
       </c>
       <c r="R7" t="n">
-        <v>250.5557496112439</v>
+        <v>315.2036061918676</v>
       </c>
       <c r="S7" t="n">
-        <v>250.5557496112439</v>
+        <v>315.2036061918676</v>
       </c>
       <c r="T7" t="n">
-        <v>250.5557496112439</v>
+        <v>191.725145014737</v>
       </c>
       <c r="U7" t="n">
-        <v>250.5557496112439</v>
+        <v>191.725145014737</v>
       </c>
       <c r="V7" t="n">
-        <v>250.5557496112439</v>
+        <v>191.725145014737</v>
       </c>
       <c r="W7" t="n">
-        <v>250.5557496112439</v>
+        <v>191.725145014737</v>
       </c>
       <c r="X7" t="n">
-        <v>250.5557496112439</v>
+        <v>191.725145014737</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.76317046771383</v>
+        <v>191.725145014737</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1732.515907621104</v>
+        <v>1567.641263708174</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>840.4130481610121</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>454.6247955627678</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491378</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1916.245359491378</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y8" t="n">
-        <v>1732.515907621104</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4889,19 +4889,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63.80648027229054</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="C10" t="n">
-        <v>63.80648027229054</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005476</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="X10" t="n">
-        <v>245.4549451025302</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="Y10" t="n">
-        <v>245.4549451025302</v>
+        <v>99.59950625323009</v>
       </c>
     </row>
     <row r="11">
@@ -5020,70 +5020,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5108,40 +5108,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L12" t="n">
-        <v>721.5398184181058</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1028.859951698067</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1833.271529962218</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>561.6946978510159</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C13" t="n">
-        <v>561.6946978510159</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>561.6946978510159</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>561.6946978510159</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>414.8047503531055</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247858</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>964.1357418247858</v>
+        <v>843.0058084120794</v>
       </c>
       <c r="W13" t="n">
-        <v>964.1357418247858</v>
+        <v>843.0058084120794</v>
       </c>
       <c r="X13" t="n">
-        <v>964.1357418247858</v>
+        <v>615.0162575140621</v>
       </c>
       <c r="Y13" t="n">
-        <v>743.3431626812556</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5323,7 +5323,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>822.1480540508779</v>
+        <v>110.0328757364142</v>
       </c>
       <c r="C16" t="n">
-        <v>822.1480540508779</v>
+        <v>110.0328757364142</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1050.137604948895</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1050.137604948895</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>1050.137604948895</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W16" t="n">
-        <v>1050.137604948895</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X16" t="n">
-        <v>822.1480540508779</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="Y16" t="n">
-        <v>822.1480540508779</v>
+        <v>110.0328757364142</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5506,19 +5506,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,40 +5527,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>553.0935746802517</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1321.461721072713</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1651.324348736746</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>678.2225136306378</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="C19" t="n">
-        <v>509.2863307027309</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="D19" t="n">
-        <v>359.1696912903951</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5706,19 +5706,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>906.2120645286551</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>678.2225136306378</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y19" t="n">
-        <v>678.2225136306378</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080548</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4036.945405494735</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C22" t="n">
-        <v>3924.337302507102</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D22" t="n">
-        <v>3774.220663094766</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>3774.220663094766</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.859459491671</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>4036.945405494735</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>4036.945405494735</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>4036.945405494735</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>4036.945405494735</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y22" t="n">
-        <v>4036.945405494735</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028627</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X25" t="n">
-        <v>615.317626553783</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y25" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6247,28 +6247,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W28" t="n">
-        <v>441.900558318119</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>244.1070389581962</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6542,25 +6542,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>413.0432218861031</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C31" t="n">
-        <v>244.1070389581962</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D31" t="n">
-        <v>244.1070389581962</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
         <v>244.1070389581962</v>
@@ -6654,19 +6654,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>1332.890986794851</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>1043.47381675789</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>815.4842658598729</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.6916867163428</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="32">
@@ -6703,13 +6703,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6736,7 +6736,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
@@ -6779,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4206.132591937265</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C34" t="n">
-        <v>4037.196409009357</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D34" t="n">
-        <v>4037.196409009357</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>3889.283315426964</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4749.779469576118</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4608.573635911034</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>4608.573635911034</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>4608.573635911034</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>4608.573635911034</v>
+        <v>425.7555037884359</v>
       </c>
       <c r="Y34" t="n">
-        <v>4387.781056767504</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6937,16 +6937,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6958,7 +6958,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2525.058920465858</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L36" t="n">
-        <v>2771.824048372322</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M36" t="n">
-        <v>3540.192194764783</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>4289.159124556162</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>4568.699189774859</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>524.5778132641556</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="C37" t="n">
-        <v>355.6416303362487</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="D37" t="n">
-        <v>355.6416303362487</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="E37" t="n">
-        <v>355.6416303362487</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="H37" t="n">
         <v>208.7516828383384</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1326.909037298052</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1103.123622087558</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U37" t="n">
-        <v>813.9949833011162</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V37" t="n">
-        <v>813.9949833011162</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W37" t="n">
-        <v>524.5778132641556</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X37" t="n">
-        <v>524.5778132641556</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="Y37" t="n">
-        <v>524.5778132641556</v>
+        <v>330.8254548799443</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,16 +7168,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,34 +7192,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3865.266479913453</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C40" t="n">
-        <v>3865.266479913453</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D40" t="n">
-        <v>3721.107993746786</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4637.069157803799</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>4347.940519017357</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V40" t="n">
-        <v>4093.25603081147</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W40" t="n">
-        <v>4093.25603081147</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="X40" t="n">
-        <v>3865.266479913453</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="Y40" t="n">
-        <v>3865.266479913453</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="41">
@@ -7402,25 +7402,25 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619127</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7441,19 +7441,19 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.995055864553</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1538.857683528586</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>2208.321444831246</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C43" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D43" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E43" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F43" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4745.222238409363</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4745.222238409363</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>4745.222238409363</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V43" t="n">
-        <v>4490.537750203476</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W43" t="n">
-        <v>4201.120580166516</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X43" t="n">
-        <v>3973.131029268498</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y43" t="n">
-        <v>3752.338450124968</v>
+        <v>306.1124721890595</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7648,19 +7648,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>434.3285960683721</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1115.325099565746</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>1115.325099565746</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.446367141521</v>
+        <v>1115.325099565746</v>
       </c>
       <c r="W46" t="n">
-        <v>1020.446367141521</v>
+        <v>825.9079295287855</v>
       </c>
       <c r="X46" t="n">
-        <v>792.456816243504</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="Y46" t="n">
-        <v>615.9770608986119</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810002</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562865</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273546</v>
+        <v>132.647065034147</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>203.459764689814</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>102.9473967948383</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>97.00923094357549</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835739</v>
+        <v>157.1574330928724</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470463</v>
+        <v>437.615280947046</v>
       </c>
       <c r="O6" t="n">
-        <v>291.5160437006024</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.703734524734</v>
+        <v>107.7037345247342</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8774,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>62.79465928983205</v>
+        <v>234.411650950317</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>73.64859338270691</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9175,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,16 +9248,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>18.73797368291343</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3376789165112</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>412.6002929596431</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>113.6026921294544</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>111.4148599912942</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>110.5711992564299</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>135.9278465848453</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>85.14184449286853</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>133.644783657464</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>173.4310387498534</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>55.76479914087145</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>148.3003094079471</v>
       </c>
     </row>
     <row r="23">
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>175.8449918839553</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="26">
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>14.4554881988895</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>29.89407122271365</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>57.51827062200606</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>87.77261239840709</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>146.4435770701447</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>209.726051404651</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>28.06079404634626</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>27.63364905635157</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>5.89857171321205</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>110.0180325826782</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>83.44479872472334</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>83.44479872472317</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>39.71311175975779</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>43.86969556065156</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>844383.2002548932</v>
+        <v>844383.2002548933</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>844383.2002548933</v>
+        <v>844383.200254893</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>844383.2002548933</v>
+        <v>844383.200254893</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>844383.2002548933</v>
+        <v>844383.2002548932</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="E2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="F2" t="n">
         <v>566992.1366196779</v>
-      </c>
-      <c r="F2" t="n">
-        <v>566992.1366196774</v>
       </c>
       <c r="G2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="H2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="I2" t="n">
         <v>566992.1366196779</v>
       </c>
-      <c r="I2" t="n">
-        <v>566992.1366196781</v>
-      </c>
       <c r="J2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="K2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="L2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="N2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="L2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="P2" t="n">
         <v>566992.1366196779</v>
-      </c>
-      <c r="O2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="P2" t="n">
-        <v>566992.1366196781</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703847</v>
+        <v>106137.1517703838</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252101</v>
+        <v>316711.9424252108</v>
       </c>
       <c r="E3" t="n">
         <v>525160.036476896</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113901</v>
+        <v>72254.69487113907</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313441</v>
+        <v>24677.24609313428</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817115</v>
+        <v>76496.15793817131</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>313914.2387902217</v>
+        <v>313918.8117965547</v>
       </c>
       <c r="C4" t="n">
-        <v>283833.7079862193</v>
+        <v>283838.3420457916</v>
       </c>
       <c r="D4" t="n">
-        <v>189026.8536000362</v>
+        <v>189031.6801147361</v>
       </c>
       <c r="E4" t="n">
-        <v>41002.33132508009</v>
+        <v>41006.21575444214</v>
       </c>
       <c r="F4" t="n">
-        <v>41002.33132508009</v>
+        <v>41006.21575444214</v>
       </c>
       <c r="G4" t="n">
-        <v>41002.33132508011</v>
+        <v>41006.21575444214</v>
       </c>
       <c r="H4" t="n">
-        <v>41002.3313250801</v>
+        <v>41006.21575444214</v>
       </c>
       <c r="I4" t="n">
-        <v>41002.33132508009</v>
+        <v>41006.21575444214</v>
       </c>
       <c r="J4" t="n">
-        <v>41002.33132508009</v>
+        <v>41006.21575444214</v>
       </c>
       <c r="K4" t="n">
-        <v>41002.33132508011</v>
+        <v>41006.21575444215</v>
       </c>
       <c r="L4" t="n">
-        <v>41002.33132508009</v>
+        <v>41006.21575444214</v>
       </c>
       <c r="M4" t="n">
-        <v>41002.33132508009</v>
+        <v>41006.21575444214</v>
       </c>
       <c r="N4" t="n">
-        <v>41002.3313250801</v>
+        <v>41006.21575444214</v>
       </c>
       <c r="O4" t="n">
-        <v>41002.33132508013</v>
+        <v>41006.21575444214</v>
       </c>
       <c r="P4" t="n">
-        <v>41002.33132508009</v>
+        <v>41006.21575444214</v>
       </c>
     </row>
     <row r="5">
@@ -26472,28 +26472,28 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485721</v>
+        <v>58810.42201485715</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26505,7 +26505,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103866.3233977907</v>
+        <v>103861.7503914575</v>
       </c>
       <c r="C6" t="n">
-        <v>146474.0013801443</v>
+        <v>146469.3673205727</v>
       </c>
       <c r="D6" t="n">
-        <v>6657.409062948922</v>
+        <v>6652.582548248174</v>
       </c>
       <c r="E6" t="n">
-        <v>-91157.55713101485</v>
+        <v>-92136.03282009841</v>
       </c>
       <c r="F6" t="n">
-        <v>434002.4793458807</v>
+        <v>433024.0036567975</v>
       </c>
       <c r="G6" t="n">
-        <v>434002.4793458813</v>
+        <v>433024.0036567976</v>
       </c>
       <c r="H6" t="n">
-        <v>434002.4793458811</v>
+        <v>433024.0036567976</v>
       </c>
       <c r="I6" t="n">
-        <v>434002.4793458814</v>
+        <v>433024.0036567975</v>
       </c>
       <c r="J6" t="n">
-        <v>361747.7844747423</v>
+        <v>360769.3087856583</v>
       </c>
       <c r="K6" t="n">
-        <v>409325.2332527469</v>
+        <v>408346.7575636631</v>
       </c>
       <c r="L6" t="n">
-        <v>357506.3214077103</v>
+        <v>356527.8457186263</v>
       </c>
       <c r="M6" t="n">
-        <v>299201.4641120438</v>
+        <v>298222.9884229602</v>
       </c>
       <c r="N6" t="n">
-        <v>434002.4793458811</v>
+        <v>433024.0036567976</v>
       </c>
       <c r="O6" t="n">
-        <v>434002.4793458813</v>
+        <v>433024.0036567973</v>
       </c>
       <c r="P6" t="n">
-        <v>434002.4793458814</v>
+        <v>433024.0036567975</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593897</v>
+        <v>117.5602045593891</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26758,7 +26758,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464229</v>
+        <v>372.0396308464222</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026444</v>
+        <v>82.53894384026374</v>
       </c>
       <c r="D3" t="n">
-        <v>260.183459657697</v>
+        <v>260.1834596576975</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>276.1565137023555</v>
+      </c>
+      <c r="C4" t="n">
+        <v>95.88311714406672</v>
+      </c>
+      <c r="D4" t="n">
+        <v>302.2476419081333</v>
+      </c>
+      <c r="E4" t="n">
+        <v>540.9263704990174</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="C4" t="n">
-        <v>95.88311714406753</v>
-      </c>
-      <c r="D4" t="n">
-        <v>302.2476419081327</v>
-      </c>
-      <c r="E4" t="n">
-        <v>540.9263704990175</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>276.1565137023551</v>
-      </c>
       <c r="K4" t="n">
-        <v>95.88311714406768</v>
+        <v>95.88311714406717</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081324</v>
+        <v>302.2476419081331</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406753</v>
+        <v>95.88311714406672</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081327</v>
+        <v>302.2476419081333</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>105.7738563699064</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>139.005434824964</v>
+        <v>281.8046162864288</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>365.4788271569877</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>163.4847355532086</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>154.9060079269695</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>95.94213423096039</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,10 +27560,10 @@
         <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>50.57846144115925</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>10.69421081705838</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>9.890739225839582</v>
       </c>
       <c r="F5" t="n">
-        <v>34.8364148952885</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128743</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.2558301280909</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385215</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409304</v>
+        <v>198.2506096409305</v>
       </c>
       <c r="T5" t="n">
         <v>221.0270262658048</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>196.8895411763494</v>
+        <v>183.9266903868838</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>14.19830780963139</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>105.8129083192835</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281881</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129679</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>96.40419765518516</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27791,13 +27791,13 @@
         <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>160.342354801553</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504966</v>
+        <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358469</v>
+        <v>78.37121764358477</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.40907434840814</v>
+        <v>68.41045236322664</v>
       </c>
       <c r="R7" t="n">
         <v>167.761378725518</v>
@@ -27827,7 +27827,7 @@
         <v>220.3221240674583</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882337</v>
+        <v>104.7961211228745</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>23.98522015752712</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>204.345781304483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>138.8506095508055</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,28 +28055,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>204.7185448178952</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.472603837424682</v>
+        <v>0.4726038374246794</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025525</v>
+        <v>4.840054050025499</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231507</v>
+        <v>18.22005944231497</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662314</v>
+        <v>40.11165994662291</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480994</v>
+        <v>60.1169803848096</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439557</v>
+        <v>74.58043007439515</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819675</v>
+        <v>82.98509856819629</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127963</v>
+        <v>84.32788422127916</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288794</v>
+        <v>79.6284298128875</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646611</v>
+        <v>67.96102257646572</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869466</v>
+        <v>51.03589764869438</v>
       </c>
       <c r="R5" t="n">
-        <v>29.6872008026282</v>
+        <v>29.68720080262804</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531495</v>
+        <v>10.76945994531489</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326546</v>
+        <v>2.068823298326535</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397455</v>
+        <v>0.03780830699397434</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560458</v>
+        <v>0.2528653456560445</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941285</v>
+        <v>2.442146890941272</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596317</v>
+        <v>8.706109488596267</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182844</v>
+        <v>23.89022987182831</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078351</v>
+        <v>40.83220803078328</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483575</v>
+        <v>54.90394270483544</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486739</v>
+        <v>64.07031148486703</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270993</v>
+        <v>65.76606198270956</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106807</v>
+        <v>60.16309827106773</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496897</v>
+        <v>48.2861904349687</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128754</v>
+        <v>32.27803956128736</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134643</v>
+        <v>15.69983260134634</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707691</v>
+        <v>4.696862889707664</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359237</v>
+        <v>1.019224792359231</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368723</v>
+        <v>0.01663587800368714</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005388</v>
+        <v>0.2119938115005376</v>
       </c>
       <c r="H7" t="n">
-        <v>1.88481770588661</v>
+        <v>1.8848177058866</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761661</v>
+        <v>6.375232076761625</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308809</v>
+        <v>14.98796247308801</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342623</v>
+        <v>24.6298264634261</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072557</v>
+        <v>31.5176981207254</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094355</v>
+        <v>33.23099356094337</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898703</v>
+        <v>32.44083480898684</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736708</v>
+        <v>29.96436164736692</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275607</v>
+        <v>25.63968789275593</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846785</v>
+        <v>17.75159088846775</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651499</v>
+        <v>9.532012651651446</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513935</v>
+        <v>3.694473969513914</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477566</v>
+        <v>0.9057917400477515</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912031</v>
+        <v>0.01156329880912025</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023554</v>
+        <v>20.89710520914779</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891755</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821095</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>73.09363939595683</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201062</v>
+        <v>28.1623705920104</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109941</v>
+        <v>164.1725419109938</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548588</v>
+        <v>256.4752296548584</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337565</v>
+        <v>302.152398833756</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366729</v>
+        <v>292.2617450366724</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539466</v>
+        <v>230.3303996539461</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926792</v>
+        <v>158.5267349926788</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414986</v>
+        <v>41.04519843414958</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>23.14363854557045</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>167.4560060690029</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284207</v>
+        <v>287.1899082284204</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464229</v>
+        <v>79.09371065572114</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464229</v>
+        <v>372.0396308464222</v>
       </c>
       <c r="O6" t="n">
-        <v>209.082897527226</v>
+        <v>311.4291731033528</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605759</v>
+        <v>232.7745516605756</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543382</v>
+        <v>2.360334637543247</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104171</v>
+        <v>59.10772338104154</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278413</v>
+        <v>72.81487052278396</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821563</v>
+        <v>76.57300718821543</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140676</v>
+        <v>54.54948956140659</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764956</v>
+        <v>22.91824715764941</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35494,25 +35494,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>312.0523642458563</v>
+        <v>483.6693559063413</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>384.0729704331731</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35743,10 +35743,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>267.9956786389377</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
@@ -35986,7 +35986,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>745.7948663576559</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686864</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37873,13 +37873,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>320.696107060979</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>10.73738595686864</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/1000000/Output_6_29.xlsx
+++ b/Outputs/1. Budget/Output Files/1000000/Output_6_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2254226.73651358</v>
+        <v>2265363.552249915</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>47.08699212886152</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="G2" t="n">
-        <v>133.3573322408907</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>9.223763435107132</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>69.31585159621662</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>7.884372849250095</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>372.0396308464222</v>
+        <v>372.0396308464211</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>372.0396308464222</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385216</v>
+        <v>120.1819171385219</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>185.8044102915852</v>
+        <v>203.1609995173222</v>
       </c>
       <c r="Y5" t="n">
-        <v>372.0396308464222</v>
+        <v>372.0396308464211</v>
       </c>
     </row>
     <row r="6">
@@ -980,13 +980,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>41.63215724535524</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>136.3289065888669</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>57.78085107675671</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>160.342354801553</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>78.37121764358488</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>122.2436765653592</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>382.8908255841843</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>13.78417002079501</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>16.62230593065972</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>155.2114886365806</v>
       </c>
       <c r="W10" t="n">
-        <v>81.80445351869579</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>46.47031367429594</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1587,7 +1587,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>141.5664440673981</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>30.43484953081551</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>12.68762643336706</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,7 +1824,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>14.97068936074831</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>89.58247722241514</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>70.28434394414768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274077</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>46.90175579878738</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>139.1537278750036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>237.6821551249385</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>83.62275566270739</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>122.3137095599312</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>41.41265486113522</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>219.4871837485968</v>
       </c>
       <c r="X34" t="n">
-        <v>15.98360398438619</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.8530343211899</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>46.90175579878783</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3562,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>137.6122649567903</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>176.5049657539128</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.38718145721396</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>150.8003755784928</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4036,7 +4036,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T46" t="n">
-        <v>181.8344492986315</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>642.8621858041602</v>
+        <v>316.3535940554561</v>
       </c>
       <c r="C2" t="n">
-        <v>642.8621858041602</v>
+        <v>316.3535940554561</v>
       </c>
       <c r="D2" t="n">
-        <v>642.8621858041602</v>
+        <v>316.3535940554561</v>
       </c>
       <c r="E2" t="n">
-        <v>642.8621858041602</v>
+        <v>316.3535940554561</v>
       </c>
       <c r="F2" t="n">
-        <v>363.9162123674374</v>
+        <v>37.40762061873336</v>
       </c>
       <c r="G2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618846</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438684</v>
@@ -4375,7 +4375,7 @@
         <v>642.8621858041602</v>
       </c>
       <c r="Y2" t="n">
-        <v>642.8621858041602</v>
+        <v>363.9162123674374</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.40945385892292</v>
+        <v>266.5615620906656</v>
       </c>
       <c r="C3" t="n">
-        <v>22.09252109618844</v>
+        <v>92.10853280953856</v>
       </c>
       <c r="D3" t="n">
-        <v>22.09252109618844</v>
+        <v>92.10853280953856</v>
       </c>
       <c r="E3" t="n">
-        <v>22.09252109618844</v>
+        <v>92.10853280953856</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618844</v>
+        <v>92.10853280953856</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618844</v>
+        <v>92.10853280953856</v>
       </c>
       <c r="H3" t="n">
         <v>22.09252109618844</v>
@@ -4409,25 +4409,25 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
-        <v>22.09252109618844</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>268.2479876888895</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M3" t="n">
-        <v>541.6429362542214</v>
+        <v>685.3494183114809</v>
       </c>
       <c r="N3" t="n">
-        <v>562.3310704112777</v>
+        <v>838.1292412261381</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945615</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4445,16 +4445,16 @@
         <v>1104.626054809422</v>
       </c>
       <c r="V3" t="n">
-        <v>869.4739465776793</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W3" t="n">
-        <v>615.2365898494777</v>
+        <v>850.3886980812204</v>
       </c>
       <c r="X3" t="n">
-        <v>407.3850896439449</v>
+        <v>642.5371978756875</v>
       </c>
       <c r="Y3" t="n">
-        <v>199.624790878991</v>
+        <v>434.7768991107336</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618844</v>
+        <v>30.05653407522894</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618844</v>
+        <v>30.05653407522894</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618844</v>
+        <v>30.05653407522894</v>
       </c>
       <c r="F4" t="n">
         <v>22.09252109618844</v>
@@ -4530,10 +4530,10 @@
         <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>427.4862111402835</v>
+        <v>409.9543028314559</v>
       </c>
       <c r="C5" t="n">
-        <v>427.4862111402835</v>
+        <v>409.9543028314559</v>
       </c>
       <c r="D5" t="n">
-        <v>427.4862111402835</v>
+        <v>51.68860422470541</v>
       </c>
       <c r="E5" t="n">
-        <v>51.6886042247055</v>
+        <v>51.68860422470541</v>
       </c>
       <c r="F5" t="n">
-        <v>44.74310347550203</v>
+        <v>44.74310347550195</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771369</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771369</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771369</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380406</v>
+        <v>57.64391735380377</v>
       </c>
       <c r="K5" t="n">
-        <v>220.174733845688</v>
+        <v>220.1747338456872</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039978</v>
+        <v>474.0852112039963</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494163</v>
+        <v>773.2160860494141</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635722</v>
+        <v>1062.555213635719</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293129</v>
+        <v>1290.582309293125</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935881</v>
+        <v>1447.523776935877</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385689</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.762647488192</v>
+        <v>1366.762647488188</v>
       </c>
       <c r="S5" t="n">
-        <v>1366.762647488192</v>
+        <v>1366.762647488188</v>
       </c>
       <c r="T5" t="n">
-        <v>1366.762647488192</v>
+        <v>1366.762647488188</v>
       </c>
       <c r="U5" t="n">
-        <v>1366.762647488192</v>
+        <v>1366.762647488188</v>
       </c>
       <c r="V5" t="n">
-        <v>1366.762647488192</v>
+        <v>1366.762647488188</v>
       </c>
       <c r="W5" t="n">
-        <v>1366.762647488192</v>
+        <v>1366.762647488188</v>
       </c>
       <c r="X5" t="n">
-        <v>1179.081424971439</v>
+        <v>1161.54951666261</v>
       </c>
       <c r="Y5" t="n">
-        <v>803.2838180558615</v>
+        <v>785.7519097470329</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>246.2688838350582</v>
+        <v>650.0940306669281</v>
       </c>
       <c r="C6" t="n">
-        <v>71.81585455393119</v>
+        <v>475.6410013858011</v>
       </c>
       <c r="D6" t="n">
-        <v>29.76317046771378</v>
+        <v>326.7065917245499</v>
       </c>
       <c r="E6" t="n">
-        <v>29.76317046771378</v>
+        <v>167.4691367190944</v>
       </c>
       <c r="F6" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771369</v>
       </c>
       <c r="G6" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771369</v>
       </c>
       <c r="H6" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771369</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771369</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782852</v>
+        <v>29.76317046771369</v>
       </c>
       <c r="K6" t="n">
-        <v>218.4568186361414</v>
+        <v>29.76317046771369</v>
       </c>
       <c r="L6" t="n">
-        <v>502.7748277822776</v>
+        <v>314.0811796138495</v>
       </c>
       <c r="M6" t="n">
-        <v>581.0776013314415</v>
+        <v>682.4004141518064</v>
       </c>
       <c r="N6" t="n">
-        <v>949.3968358693995</v>
+        <v>1050.719648689763</v>
       </c>
       <c r="O6" t="n">
-        <v>1257.711717241719</v>
+        <v>1359.034530062082</v>
       </c>
       <c r="P6" t="n">
-        <v>1488.158523385689</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385689</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="R6" t="n">
-        <v>1488.158523385689</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="S6" t="n">
-        <v>1319.485484785557</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="T6" t="n">
-        <v>1319.485484785557</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="U6" t="n">
-        <v>1319.485484785557</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="V6" t="n">
-        <v>1084.333376553815</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="W6" t="n">
-        <v>830.096019825613</v>
+        <v>1233.921166657483</v>
       </c>
       <c r="X6" t="n">
-        <v>622.2445196200802</v>
+        <v>1026.06966645195</v>
       </c>
       <c r="Y6" t="n">
-        <v>414.4842208551262</v>
+        <v>818.3093676869962</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>191.725145014737</v>
+        <v>315.203606191866</v>
       </c>
       <c r="C7" t="n">
-        <v>191.725145014737</v>
+        <v>315.203606191866</v>
       </c>
       <c r="D7" t="n">
-        <v>191.725145014737</v>
+        <v>256.839110154738</v>
       </c>
       <c r="E7" t="n">
-        <v>191.725145014737</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="F7" t="n">
-        <v>191.725145014737</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="G7" t="n">
-        <v>191.725145014737</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771378</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771378</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771369</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888159</v>
+        <v>32.0999017588813</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611271</v>
+        <v>90.61654790611217</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236688</v>
+        <v>162.703269723668</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400021</v>
+        <v>238.510546840001</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057946</v>
+        <v>292.5145415057933</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918676</v>
+        <v>315.203606191866</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918676</v>
+        <v>315.203606191866</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918676</v>
+        <v>315.203606191866</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918676</v>
+        <v>315.203606191866</v>
       </c>
       <c r="T7" t="n">
-        <v>191.725145014737</v>
+        <v>315.203606191866</v>
       </c>
       <c r="U7" t="n">
-        <v>191.725145014737</v>
+        <v>315.203606191866</v>
       </c>
       <c r="V7" t="n">
-        <v>191.725145014737</v>
+        <v>315.203606191866</v>
       </c>
       <c r="W7" t="n">
-        <v>191.725145014737</v>
+        <v>315.203606191866</v>
       </c>
       <c r="X7" t="n">
-        <v>191.725145014737</v>
+        <v>315.203606191866</v>
       </c>
       <c r="Y7" t="n">
-        <v>191.725145014737</v>
+        <v>315.203606191866</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1567.641263708174</v>
+        <v>1310.223352138541</v>
       </c>
       <c r="C8" t="n">
-        <v>1198.678746767763</v>
+        <v>941.2608351981289</v>
       </c>
       <c r="D8" t="n">
-        <v>840.4130481610121</v>
+        <v>941.2608351981289</v>
       </c>
       <c r="E8" t="n">
-        <v>454.6247955627678</v>
+        <v>555.4725825998846</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>548.5270818506812</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>534.6036777892721</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2680.358883007455</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2680.358883007455</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2680.358883007455</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2426.597097645546</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2426.597097645546</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2073.828442375432</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.380435748108</v>
+        <v>1700.362684114352</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.241103772296</v>
+        <v>1310.223352138541</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424004</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572643</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.317569050018</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="U10" t="n">
-        <v>182.2302673832259</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="V10" t="n">
-        <v>182.2302673832259</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323009</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5020,25 +5020,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823786</v>
@@ -5050,40 +5050,40 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>412.607977814708</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.223678370532</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
-        <v>394.223678370532</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
         <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5235,16 +5235,16 @@
         <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>843.0058084120794</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W13" t="n">
-        <v>843.0058084120794</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X13" t="n">
-        <v>615.0162575140621</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="Y13" t="n">
-        <v>394.223678370532</v>
+        <v>758.0126656629491</v>
       </c>
     </row>
     <row r="14">
@@ -5278,19 +5278,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5360,22 +5360,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300503</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>110.0328757364142</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0328757364142</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227918</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>620.2426249169049</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W16" t="n">
-        <v>330.8254548799443</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X16" t="n">
-        <v>330.8254548799443</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y16" t="n">
-        <v>110.0328757364142</v>
+        <v>275.872457296028</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5503,13 +5503,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5527,16 +5527,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>260.2520934878793</v>
+        <v>713.5778697504956</v>
       </c>
       <c r="C19" t="n">
-        <v>260.2520934878793</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5706,19 +5706,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X19" t="n">
-        <v>441.900558318119</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="Y19" t="n">
-        <v>441.900558318119</v>
+        <v>895.2263345807353</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5752,16 +5752,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286132</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>594.6916867163428</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5977,28 +5977,28 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6010,28 +6010,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>295.0106108202086</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>755.183133481126</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>465.7659634441654</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>237.776412546148</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="26">
@@ -6208,37 +6208,37 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6250,13 +6250,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6293,25 +6293,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643586</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>545.9992215018333</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555218</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>542.1367719529251</v>
+        <v>773.1661474848155</v>
       </c>
       <c r="C31" t="n">
-        <v>542.1367719529251</v>
+        <v>604.2299645569086</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>454.1133251445729</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>454.1133251445729</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>307.2233776466625</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>139.0480559664831</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286132</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X31" t="n">
-        <v>665.6859735286132</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="Y31" t="n">
-        <v>665.6859735286132</v>
+        <v>954.8146123150552</v>
       </c>
     </row>
     <row r="32">
@@ -6697,40 +6697,40 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
         <v>4262.357857465301</v>
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2279.445761859783</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2484.468242641993</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>244.1070389581962</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C34" t="n">
-        <v>244.1070389581962</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D34" t="n">
-        <v>244.1070389581962</v>
+        <v>503.5547239186419</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="X34" t="n">
-        <v>425.7555037884359</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="Y34" t="n">
-        <v>425.7555037884359</v>
+        <v>822.6075462588844</v>
       </c>
     </row>
     <row r="35">
@@ -6916,67 +6916,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>261.8048459311028</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555218</v>
+        <v>410.8745301331627</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619858</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>330.8254548799443</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C37" t="n">
-        <v>330.8254548799443</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D37" t="n">
-        <v>330.8254548799443</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E37" t="n">
-        <v>330.8254548799443</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F37" t="n">
-        <v>330.8254548799443</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8254548799443</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>874.9271131227918</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V37" t="n">
-        <v>620.2426249169049</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W37" t="n">
-        <v>330.8254548799443</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X37" t="n">
-        <v>330.8254548799443</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="Y37" t="n">
-        <v>330.8254548799443</v>
+        <v>394.5250474102529</v>
       </c>
     </row>
     <row r="38">
@@ -7153,67 +7153,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>395.2468244550147</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C40" t="n">
-        <v>395.2468244550147</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="U40" t="n">
-        <v>1009.867621687013</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="V40" t="n">
-        <v>755.183133481126</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="W40" t="n">
-        <v>576.8952892852544</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="X40" t="n">
-        <v>576.8952892852544</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="Y40" t="n">
-        <v>576.8952892852544</v>
+        <v>1028.046300141057</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619127</v>
@@ -7435,28 +7435,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L42" t="n">
-        <v>1196.088769018224</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>966.6932390011341</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962218</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>208.7516828383384</v>
+        <v>399.6573425680689</v>
       </c>
       <c r="C43" t="n">
-        <v>208.7516828383384</v>
+        <v>399.6573425680689</v>
       </c>
       <c r="D43" t="n">
-        <v>208.7516828383384</v>
+        <v>249.5407031557332</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>249.5407031557332</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>249.5407031557332</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>1298.996260473455</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V43" t="n">
-        <v>1044.311772267568</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="W43" t="n">
-        <v>754.894602230607</v>
+        <v>809.295358296326</v>
       </c>
       <c r="X43" t="n">
-        <v>526.9050513325897</v>
+        <v>581.3058073983086</v>
       </c>
       <c r="Y43" t="n">
-        <v>306.1124721890595</v>
+        <v>581.3058073983086</v>
       </c>
     </row>
     <row r="44">
@@ -7645,16 +7645,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7663,31 +7663,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7724,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T46" t="n">
-        <v>1115.325099565746</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1115.325099565746</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>1115.325099565746</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>825.9079295287855</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,16 +8069,16 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>132.647065034147</v>
+        <v>266.0730132741479</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9473967948386</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>97.00923094357604</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>157.1574330928724</v>
+        <v>450.1033532835729</v>
       </c>
       <c r="N6" t="n">
-        <v>437.615280947046</v>
+        <v>437.6152809470454</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>216.1164930638089</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.7037345247342</v>
+        <v>107.7037345247344</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747269</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>234.411650950317</v>
+        <v>15.83804904622878</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>50.62661940943661</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9175,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>52.49733361305218</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>124.3400780863225</v>
       </c>
       <c r="K36" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>223.6742649934473</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3616665076414</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>110.5711992564299</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>149.3971306511218</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>135.9278465848453</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>133.644783657464</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>129.0021761296796</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>148.3003094079471</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>119.5918126645902</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>79.43092547709122</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>14.4554881988895</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>142.0868997263298</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>57.51827062200606</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>107.5011735064009</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24894,7 +24894,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>67.03581458799417</v>
       </c>
       <c r="X34" t="n">
-        <v>209.726051404651</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>28.06079404634626</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>178.8078995902493</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>83.93529610159896</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>110.0180325826782</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>83.44479872472334</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>15.69319288488478</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T46" t="n">
-        <v>39.71311175975779</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>892596.0400951235</v>
+        <v>892596.0400951233</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>894715.2713227015</v>
+        <v>894715.2713227016</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>844383.2002548933</v>
+        <v>844383.2002548932</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>844383.2002548933</v>
+        <v>844383.2002548932</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>844383.200254893</v>
+        <v>844383.2002548932</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>844383.200254893</v>
+        <v>844383.2002548933</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>844383.2002548932</v>
+        <v>844383.2002548933</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="G2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="H2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.1366196777</v>
+      </c>
+      <c r="J2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="K2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="L2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="M2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="I2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>566992.1366196778</v>
       </c>
-      <c r="K2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="L2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.136619678</v>
-      </c>
       <c r="O2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196781</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703838</v>
+        <v>106137.1517703826</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252108</v>
+        <v>316711.9424252117</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113907</v>
+        <v>72254.6948711391</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313428</v>
+        <v>24677.24609313416</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817131</v>
+        <v>76496.15793817167</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>313918.8117965547</v>
+        <v>313100.8401420442</v>
       </c>
       <c r="C4" t="n">
-        <v>283838.3420457916</v>
+        <v>283009.4498249369</v>
       </c>
       <c r="D4" t="n">
-        <v>189031.6801147361</v>
+        <v>188168.363528839</v>
       </c>
       <c r="E4" t="n">
-        <v>41006.21575444214</v>
+        <v>40311.40956333565</v>
       </c>
       <c r="F4" t="n">
-        <v>41006.21575444214</v>
+        <v>40311.40956333565</v>
       </c>
       <c r="G4" t="n">
-        <v>41006.21575444214</v>
+        <v>40311.40956333565</v>
       </c>
       <c r="H4" t="n">
-        <v>41006.21575444214</v>
+        <v>40311.40956333565</v>
       </c>
       <c r="I4" t="n">
-        <v>41006.21575444214</v>
+        <v>40311.40956333566</v>
       </c>
       <c r="J4" t="n">
-        <v>41006.21575444214</v>
+        <v>40311.40956333566</v>
       </c>
       <c r="K4" t="n">
-        <v>41006.21575444215</v>
+        <v>40311.40956333565</v>
       </c>
       <c r="L4" t="n">
-        <v>41006.21575444214</v>
+        <v>40311.40956333556</v>
       </c>
       <c r="M4" t="n">
-        <v>41006.21575444214</v>
+        <v>40311.40956333564</v>
       </c>
       <c r="N4" t="n">
-        <v>41006.21575444214</v>
+        <v>40311.40956333565</v>
       </c>
       <c r="O4" t="n">
-        <v>41006.21575444214</v>
+        <v>40311.40956333563</v>
       </c>
       <c r="P4" t="n">
-        <v>41006.21575444214</v>
+        <v>40311.40956333565</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485715</v>
+        <v>58810.42201485706</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26490,28 +26490,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103861.7503914575</v>
+        <v>104679.7220459679</v>
       </c>
       <c r="C6" t="n">
-        <v>146469.3673205727</v>
+        <v>147298.259541429</v>
       </c>
       <c r="D6" t="n">
-        <v>6652.582548248174</v>
+        <v>7515.899134144885</v>
       </c>
       <c r="E6" t="n">
-        <v>-92136.03282009841</v>
+        <v>-90564.09449524258</v>
       </c>
       <c r="F6" t="n">
-        <v>433024.0036567975</v>
+        <v>434595.9419816536</v>
       </c>
       <c r="G6" t="n">
-        <v>433024.0036567976</v>
+        <v>434595.9419816536</v>
       </c>
       <c r="H6" t="n">
-        <v>433024.0036567976</v>
+        <v>434595.9419816536</v>
       </c>
       <c r="I6" t="n">
-        <v>433024.0036567975</v>
+        <v>434595.9419816532</v>
       </c>
       <c r="J6" t="n">
-        <v>360769.3087856583</v>
+        <v>362341.2471105143</v>
       </c>
       <c r="K6" t="n">
-        <v>408346.7575636631</v>
+        <v>409918.6958885196</v>
       </c>
       <c r="L6" t="n">
-        <v>356527.8457186263</v>
+        <v>358099.784043482</v>
       </c>
       <c r="M6" t="n">
-        <v>298222.9884229602</v>
+        <v>299794.9267478164</v>
       </c>
       <c r="N6" t="n">
-        <v>433024.0036567976</v>
+        <v>434595.9419816533</v>
       </c>
       <c r="O6" t="n">
-        <v>433024.0036567973</v>
+        <v>434595.9419816537</v>
       </c>
       <c r="P6" t="n">
-        <v>433024.0036567975</v>
+        <v>434595.9419816536</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593891</v>
+        <v>117.5602045593881</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26764,22 +26764,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464222</v>
+        <v>372.0396308464211</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26816,10 +26816,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026374</v>
+        <v>82.53894384026279</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576975</v>
+        <v>260.1834596576982</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406672</v>
+        <v>95.88311714406561</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081333</v>
+        <v>302.2476419081345</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406717</v>
+        <v>95.88311714406606</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081331</v>
+        <v>302.2476419081345</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406672</v>
+        <v>95.88311714406561</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081333</v>
+        <v>302.2476419081345</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>335.646849534619</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,13 +27393,13 @@
         <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>281.8046162864288</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="3">
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>163.4847355532086</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27475,7 +27475,7 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>42.19207550722783</v>
       </c>
       <c r="I3" t="n">
         <v>86.80307722268739</v>
@@ -27517,7 +27517,7 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>137.5366751736811</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>50.57846144115925</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.69421081705838</v>
+        <v>10.69421081705946</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9.890739225839582</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280909</v>
+        <v>192.2558301280911</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>183.9266903868838</v>
+        <v>166.5701011611468</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.19830780963139</v>
+        <v>14.19830780963247</v>
       </c>
     </row>
     <row r="6">
@@ -27700,13 +27700,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>105.8129083192835</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>8.740305804517021</v>
       </c>
       <c r="G6" t="n">
         <v>137.0906518175546</v>
@@ -27715,7 +27715,7 @@
         <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281881</v>
+        <v>80.69052336281888</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129679</v>
+        <v>84.45800155129692</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
         <v>199.1455039024624</v>
@@ -27754,7 +27754,7 @@
         <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27779,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>90.83462194145565</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,13 +27791,13 @@
         <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
         <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358477</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322664</v>
+        <v>68.41045236322678</v>
       </c>
       <c r="R7" t="n">
-        <v>167.761378725518</v>
+        <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674583</v>
+        <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
-        <v>104.7961211228745</v>
+        <v>227.0397976882338</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.98522015752712</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>37.85609664415207</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,19 +28064,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724745</v>
       </c>
       <c r="W10" t="n">
-        <v>204.7185448178952</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>-1.620037437533028e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -31047,7 +31047,7 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -31059,28 +31059,28 @@
         <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677233</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N2" t="n">
         <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q2" t="n">
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587038</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U2" t="n">
         <v>0.01126311902524633</v>
@@ -31120,25 +31120,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779991</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L3" t="n">
         <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192331</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
         <v>19.59175225833409</v>
@@ -31150,10 +31150,10 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164377</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S3" t="n">
         <v>1.399198482504676</v>
@@ -31162,7 +31162,7 @@
         <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,37 +31199,37 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I4" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174389</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M4" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394052</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587926</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R4" t="n">
         <v>2.839592713390063</v>
@@ -31238,10 +31238,10 @@
         <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246794</v>
+        <v>0.4726038374246755</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025499</v>
+        <v>4.84005405002546</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231497</v>
+        <v>18.22005944231482</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662291</v>
+        <v>40.11165994662259</v>
       </c>
       <c r="K5" t="n">
-        <v>60.1169803848096</v>
+        <v>60.11698038480912</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439515</v>
+        <v>74.58043007439454</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819629</v>
+        <v>82.98509856819561</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127916</v>
+        <v>84.32788422127848</v>
       </c>
       <c r="O5" t="n">
-        <v>79.6284298128875</v>
+        <v>79.62842981288686</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646572</v>
+        <v>67.96102257646517</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869438</v>
+        <v>51.03589764869396</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262804</v>
+        <v>29.6872008026278</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531489</v>
+        <v>10.7694599453148</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326535</v>
+        <v>2.068823298326518</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397434</v>
+        <v>0.03780830699397403</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560445</v>
+        <v>0.2528653456560424</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941272</v>
+        <v>2.442146890941252</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596267</v>
+        <v>8.706109488596198</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182831</v>
+        <v>23.89022987182812</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078328</v>
+        <v>40.83220803078295</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483544</v>
+        <v>54.903942704835</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486703</v>
+        <v>64.07031148486652</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270956</v>
+        <v>65.76606198270903</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106773</v>
+        <v>60.16309827106724</v>
       </c>
       <c r="P6" t="n">
-        <v>48.2861904349687</v>
+        <v>48.28619043496831</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128736</v>
+        <v>32.27803956128709</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134634</v>
+        <v>15.69983260134622</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707664</v>
+        <v>4.696862889707626</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359231</v>
+        <v>1.019224792359223</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368714</v>
+        <v>0.01663587800368701</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005376</v>
+        <v>0.211993811500536</v>
       </c>
       <c r="H7" t="n">
-        <v>1.8848177058866</v>
+        <v>1.884817705886584</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761625</v>
+        <v>6.375232076761574</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308801</v>
+        <v>14.98796247308789</v>
       </c>
       <c r="K7" t="n">
-        <v>24.6298264634261</v>
+        <v>24.6298264634259</v>
       </c>
       <c r="L7" t="n">
-        <v>31.5176981207254</v>
+        <v>31.51769812072514</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094337</v>
+        <v>33.2309935609431</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898684</v>
+        <v>32.44083480898658</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736692</v>
+        <v>29.96436164736667</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275593</v>
+        <v>25.63968789275572</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846775</v>
+        <v>17.75159088846761</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651446</v>
+        <v>9.532012651651367</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513914</v>
+        <v>3.694473969513884</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477515</v>
+        <v>0.9057917400477442</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912025</v>
+        <v>0.01156329880912016</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
@@ -34789,16 +34789,16 @@
         <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>20.89710520914779</v>
+        <v>154.3230534491487</v>
       </c>
       <c r="O3" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34868,13 +34868,13 @@
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O4" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.1623705920104</v>
+        <v>28.16237059201007</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109938</v>
+        <v>164.1725419109933</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548584</v>
+        <v>256.4752296548577</v>
       </c>
       <c r="M5" t="n">
-        <v>302.152398833756</v>
+        <v>302.1523988337553</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366724</v>
+        <v>292.2617450366718</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539461</v>
+        <v>230.3303996539455</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926788</v>
+        <v>158.5267349926783</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414958</v>
+        <v>41.04519843414916</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557045</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690029</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284204</v>
+        <v>287.18990822842</v>
       </c>
       <c r="M6" t="n">
-        <v>79.09371065572114</v>
+        <v>372.0396308464211</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464222</v>
+        <v>372.0396308464211</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033528</v>
+        <v>311.4291731033524</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605756</v>
+        <v>130.4282760844469</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543247</v>
+        <v>2.360334637543044</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104154</v>
+        <v>59.10772338104128</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278396</v>
+        <v>72.81487052278368</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821543</v>
+        <v>76.57300718821517</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140659</v>
+        <v>54.54948956140635</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764941</v>
+        <v>22.9182471576492</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535759</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>483.6693559063413</v>
+        <v>265.095754002253</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
@@ -35728,7 +35728,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>201.2020579973758</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35740,13 +35740,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>374.2497035813873</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>140.5103663981263</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>166.2502570412292</v>
       </c>
       <c r="K36" t="n">
-        <v>384.9870895382561</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>506.0379672345555</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
